--- a/Flyback Converter Parameters.xlsx
+++ b/Flyback Converter Parameters.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\C1\Documents\C1_Repos\Technion_Project_A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C1 Repos\Technion_Project_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2ACB6A-694B-4612-B68F-89D5958F28E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6119C005-420B-4D0B-9C11-003202D84629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27195" yWindow="4065" windowWidth="11205" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="20850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="Core Materials" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1.old" sheetId="1" r:id="rId3"/>
+    <sheet name="From Scratch" sheetId="5" r:id="rId1"/>
+    <sheet name="CCM" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Core Materials" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1.old" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="90">
   <si>
     <t>Design Input</t>
   </si>
@@ -437,6 +439,63 @@
   </si>
   <si>
     <t>nF</t>
+  </si>
+  <si>
+    <t>CCM</t>
+  </si>
+  <si>
+    <t>Primary Windings</t>
+  </si>
+  <si>
+    <t>Primary L</t>
+  </si>
+  <si>
+    <t>Winding Ratio</t>
+  </si>
+  <si>
+    <t>Primary Inductance (L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Resistance (R) </t>
+  </si>
+  <si>
+    <t>Primary Imax</t>
+  </si>
+  <si>
+    <t>התנגדות סגולית של הכבל</t>
+  </si>
+  <si>
+    <t>Free space Permiability</t>
+  </si>
+  <si>
+    <t>Ku</t>
+  </si>
+  <si>
+    <t>Lgap</t>
+  </si>
+  <si>
+    <t>Wa</t>
+  </si>
+  <si>
+    <t>Aw</t>
+  </si>
+  <si>
+    <t>Ferrite Permiability</t>
+  </si>
+  <si>
+    <t>Primary Windings (n)</t>
+  </si>
+  <si>
+    <t>Primary Turns</t>
+  </si>
+  <si>
+    <t>Turn Ratio</t>
+  </si>
+  <si>
+    <t>Secondery Turns</t>
+  </si>
+  <si>
+    <t>Secondery Inductance</t>
   </si>
 </sst>
 </file>
@@ -630,7 +689,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
@@ -641,6 +700,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -928,11 +989,738 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA57DC5-DAC8-414A-94B6-7BEC89B830EE}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2">
+        <f>B8*B8*B9*B6/B10*0.001</f>
+        <v>326.51162790697674</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>750</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>169</v>
+      </c>
+      <c r="J2">
+        <v>55.9</v>
+      </c>
+      <c r="K2">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2">
+        <f>(B15/B8)*(B10/B6)</f>
+        <v>1.242222222222222E-3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3">
+        <v>3000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>33.630000000000003</v>
+      </c>
+      <c r="J4">
+        <v>43.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="3">
+        <f>4*PI()*0.0000001</f>
+        <v>1.2566370614359173E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3">
+        <v>169</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="3">
+        <v>55.9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="2">
+        <f>H14/H15</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="11">
+        <f>H16/H15/H15</f>
+        <v>4.9999999999999998E-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFF113F-A143-4549-83D6-D793B745F41A}">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2">
+        <v>3000</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4">
+        <v>33.630000000000003</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <f>F4*0.000001</f>
+        <v>3.3630000000000002E-5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5">
+        <v>43.55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5">
+        <f>F5*0.001</f>
+        <v>4.3549999999999998E-2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6">
+        <f>(F2*F3*F3*H4)/(2*PI()*H5)</f>
+        <v>53.093650471411031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2">
+        <f>(B10*B8*B8*B3*B3)/(2*B9*B7*B4*B5)*1000</f>
+        <v>10.800000000000002</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2">
+        <f>(B3*B8)/((1-B8)*(B4+L2))</f>
+        <v>2.1818181818181817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2">
+        <f>(B3+(B8*B3)/(1-B8))*(100+B14)/100</f>
+        <v>28.8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2">
+        <f>(B15*B3)/(B8*B3)+(B8*B3)/(2*B9*B11)</f>
+        <v>1.6002777777777781</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2">
+        <f>(B4+B3/B12)*(100+B19)/100</f>
+        <v>14.7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2">
+        <f>(B8*B5)/(0.01*B22*B9*1000*B4)*1000000</f>
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="2">
+        <f>VLOOKUP(B26,'Core Materials'!D:G,2,FALSE)</f>
+        <v>169</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2">
+        <f>VLOOKUP(B26,'Core Materials'!D:G,3,FALSE)</f>
+        <v>55.9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2">
+        <f>VLOOKUP(B26,'Core Materials'!D:GF,4,FALSE)</f>
+        <v>67.099999999999994</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2">
+        <f>VLOOKUP(B30,'Core Materials'!A:B,2,FALSE)</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33">
+        <f>B16*0.1+B8/(1-B8)*B3</f>
+        <v>14.88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34">
+        <f>(B17*B17*B9*0.001)/2</f>
+        <v>1.2804444830246919</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35">
+        <f>B33*B33/(B34*2.5)</f>
+        <v>69.167981255062443</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36">
+        <f>1/(0.1*B35*B9*1000)*1000000000</f>
+        <v>144.57556543574987</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A6A13C7A-8AEF-4DDE-8379-D0230215E418}">
+          <x14:formula1>
+            <xm:f>'Core Materials'!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>B30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{077146EA-AD8F-40DC-A9F9-3A0A10589B0D}">
+          <x14:formula1>
+            <xm:f>'Core Materials'!$D:$D</xm:f>
+          </x14:formula1>
+          <xm:sqref>B26</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5252A8C2-45E5-4683-96F9-FA806A289C77}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1391,12 +2179,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B40AA32-B76B-435A-BEE8-94B5984CAA41}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,7 +2267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -1879,15 +2667,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="e607d419-a581-4edb-8fdc-5a066a49763e" xsi:nil="true"/>
@@ -1896,6 +2675,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2082,14 +2870,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B0AF71B-7709-475A-AEF0-6818FCD5CCFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B13EA9-C2C4-49AA-B324-B3AC88F76A39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -2102,6 +2882,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="e607d419-a581-4edb-8fdc-5a066a49763e"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B0AF71B-7709-475A-AEF0-6818FCD5CCFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
